--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\E\Angle\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DADCBDE-EE89-4C3A-BE7B-C0D28E51C57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9611EA95-00F6-4416-9EBD-00BEFA82F613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{4DC43E00-8896-4606-9FD6-310207D6C5DB}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{00328270-EE4A-445B-8833-F1C002AED8B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B60F0B1-7854-42EB-8D50-E048106E4690}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53CED537-58C6-4CE5-838C-49C8957B440C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\E\Angle\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9611EA95-00F6-4416-9EBD-00BEFA82F613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF511934-78D8-479B-8788-4A106D18EC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{00328270-EE4A-445B-8833-F1C002AED8B3}"/>
+    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{8C0FE106-20DF-4FA5-9FB3-66CBB6DA3492}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53CED537-58C6-4CE5-838C-49C8957B440C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56051A63-B33A-471B-8004-3F137B71015A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>72.754273929809401</v>
+        <v>91.44384003295157</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\E\Angle\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF511934-78D8-479B-8788-4A106D18EC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EF59BA-8ECF-46B0-8DBE-D198D2AB43F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{8C0FE106-20DF-4FA5-9FB3-66CBB6DA3492}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{5273DCBD-DC90-4C7E-B79F-5C042D3CD34D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56051A63-B33A-471B-8004-3F137B71015A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C926E715-E97C-45D0-8243-39D47BA883AE}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>91.44384003295157</v>
+        <v>91.264725922475478</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\E\Angle\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EF59BA-8ECF-46B0-8DBE-D198D2AB43F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0795546B-3691-4C2F-AAB8-3EDFBEEF0E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{5273DCBD-DC90-4C7E-B79F-5C042D3CD34D}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{06F3E85C-7501-4721-B0A3-18B4551C88B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C926E715-E97C-45D0-8243-39D47BA883AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4772FBC8-C0FE-4158-9461-3EDA2094351E}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
